--- a/data/data_dictionary_current.xlsx
+++ b/data/data_dictionary_current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gpain/Documents/Work_Dashboards/Arkansas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1A5D59-644D-D347-9E02-8EC94718CDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5279BB0-F544-2749-BAAC-59E581188F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="760" windowWidth="18200" windowHeight="17000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="760" windowWidth="18200" windowHeight="17000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="1" r:id="rId1"/>
@@ -2253,8 +2253,8 @@
   </sheetPr>
   <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2915,7 +2915,7 @@
         <v>129</v>
       </c>
       <c r="D3" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>53</v>
@@ -2947,7 +2947,7 @@
         <v>131</v>
       </c>
       <c r="D4" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>53</v>
@@ -2979,7 +2979,7 @@
         <v>132</v>
       </c>
       <c r="D5" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>53</v>
@@ -3011,7 +3011,7 @@
         <v>134</v>
       </c>
       <c r="D6" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>53</v>
@@ -3043,7 +3043,7 @@
         <v>136</v>
       </c>
       <c r="D7" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>53</v>
@@ -3075,7 +3075,7 @@
         <v>138</v>
       </c>
       <c r="D8" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>53</v>
@@ -3107,7 +3107,7 @@
         <v>140</v>
       </c>
       <c r="D9" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>53</v>
@@ -3139,7 +3139,7 @@
         <v>142</v>
       </c>
       <c r="D10" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>53</v>
@@ -3171,7 +3171,7 @@
         <v>144</v>
       </c>
       <c r="D11" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>53</v>
@@ -3203,7 +3203,7 @@
         <v>146</v>
       </c>
       <c r="D12" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>53</v>
@@ -3235,7 +3235,7 @@
         <v>148</v>
       </c>
       <c r="D13" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>53</v>
@@ -3267,7 +3267,7 @@
         <v>150</v>
       </c>
       <c r="D14" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>53</v>
@@ -3299,7 +3299,7 @@
         <v>152</v>
       </c>
       <c r="D15" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>53</v>
@@ -3331,7 +3331,7 @@
         <v>154</v>
       </c>
       <c r="D16" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>53</v>
@@ -3363,7 +3363,7 @@
         <v>156</v>
       </c>
       <c r="D17" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>53</v>
@@ -6622,8 +6622,8 @@
   </sheetPr>
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
